--- a/restaurant仕様書_20200731.xlsx
+++ b/restaurant仕様書_20200731.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12990" activeTab="6"/>
+    <workbookView windowWidth="28200" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="データ型" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +200,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,23 +257,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,59 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -317,8 +302,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +326,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -340,22 +341,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,97 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +387,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,43 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,15 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -669,11 +647,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,24 +686,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,148 +732,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,26 +887,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2411,6 +2398,1211 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキストボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="1981200"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="2428875"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキストボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="3028950"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキストボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="847725"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="2019300"/>
+          <a:ext cx="3761105" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465455</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="2466975"/>
+          <a:ext cx="3761105" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36830</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="733425"/>
+          <a:ext cx="1589405" cy="646430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="2924175"/>
+          <a:ext cx="1046480" cy="646430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6268,6 +7460,984 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389255</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="2009775"/>
+          <a:ext cx="2379980" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="2019300"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキストボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="3048000"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキストボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="866775"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417195</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="2743200"/>
+          <a:ext cx="6732270" cy="884555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="733425"/>
+          <a:ext cx="2009140" cy="685165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7208,11 +9378,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>　　</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -7718,11 +9884,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>　　　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>　</a:t>
+            <a:t>　　　　　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -8506,6 +10668,658 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキストボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="3762375"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="847725"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>636905</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="3657600"/>
+          <a:ext cx="1808480" cy="694055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="742950"/>
+          <a:ext cx="2075815" cy="675005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9911,6 +12725,1310 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキストボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="1876425"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="2333625"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキストボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2905125"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキストボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="857250"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541655</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="1895475"/>
+          <a:ext cx="3189605" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="2343150"/>
+          <a:ext cx="3198495" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="2781300"/>
+          <a:ext cx="1561465" cy="646430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="752475"/>
+          <a:ext cx="2113915" cy="637540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12121,6 +16239,332 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436880" cy="421005"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキストボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="857250"/>
+          <a:ext cx="436880" cy="421005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="723900"/>
+          <a:ext cx="2018030" cy="704215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14260,8 +18704,8 @@
   <sheetPr/>
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14312,7 +18756,6 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -14357,7 +18800,6 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14"/>
       <c r="E14" t="s">
         <v>8</v>
       </c>
@@ -14369,7 +18811,6 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15"/>
       <c r="E15" t="s">
         <v>8</v>
       </c>
@@ -14442,7 +18883,7 @@
   <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14477,18 +18918,18 @@
       <c r="M6" s="6">
         <v>1</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="13:16">
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>2</v>
       </c>
       <c r="N7" s="7" t="s">
@@ -14502,7 +18943,7 @@
       </c>
     </row>
     <row r="8" spans="13:16">
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>3</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -14516,7 +18957,7 @@
       </c>
     </row>
     <row r="9" spans="13:16">
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>4</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -14542,7 +18983,7 @@
   <dimension ref="B2:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -14577,18 +19018,18 @@
       <c r="M6" s="6">
         <v>1</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="13:16">
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>2</v>
       </c>
       <c r="N7" s="7" t="s">
@@ -14602,7 +19043,7 @@
       </c>
     </row>
     <row r="8" spans="13:16">
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>3</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -14627,8 +19068,8 @@
   <sheetPr/>
   <dimension ref="B2:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -14663,7 +19104,7 @@
       <c r="M7" s="6">
         <v>1</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -14674,7 +19115,7 @@
       </c>
     </row>
     <row r="8" spans="13:16">
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>2</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -14700,7 +19141,7 @@
   <dimension ref="B2:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14735,18 +19176,18 @@
       <c r="M7" s="6">
         <v>1</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="13:16">
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>2</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -14755,12 +19196,12 @@
       <c r="O8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="13:16">
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>3</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -14774,7 +19215,7 @@
       </c>
     </row>
     <row r="10" spans="13:16">
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>4</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -14797,13 +19238,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:P8"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="13" max="13" width="3.125" customWidth="1"/>
     <col min="14" max="14" width="13.875" customWidth="1"/>
@@ -14845,20 +19286,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="13:16">
-      <c r="M8" s="8">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -14871,7 +19298,7 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
